--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H2">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I2">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J2">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>454.3794393045323</v>
+        <v>9.264541824676666</v>
       </c>
       <c r="R2">
-        <v>4089.414953740791</v>
+        <v>83.38087642209</v>
       </c>
       <c r="S2">
-        <v>0.203074655624418</v>
+        <v>0.01182938961716987</v>
       </c>
       <c r="T2">
-        <v>0.2030746556244179</v>
+        <v>0.01182938961716986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H3">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I3">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J3">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>394.3445062719698</v>
+        <v>12.20778730668267</v>
       </c>
       <c r="R3">
-        <v>3549.100556447728</v>
+        <v>109.870085760144</v>
       </c>
       <c r="S3">
-        <v>0.1762433945759803</v>
+        <v>0.01558745970897811</v>
       </c>
       <c r="T3">
-        <v>0.1762433945759803</v>
+        <v>0.0155874597089781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H4">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I4">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J4">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>551.3630983739324</v>
+        <v>17.06863751529067</v>
       </c>
       <c r="R4">
-        <v>4962.267885365392</v>
+        <v>153.617737637616</v>
       </c>
       <c r="S4">
-        <v>0.2464193175150599</v>
+        <v>0.02179401499001406</v>
       </c>
       <c r="T4">
-        <v>0.2464193175150598</v>
+        <v>0.02179401499001406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H5">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I5">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J5">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>178.2007763308976</v>
+        <v>117.3690819365856</v>
       </c>
       <c r="R5">
-        <v>1603.806986978079</v>
+        <v>1056.32173742927</v>
       </c>
       <c r="S5">
-        <v>0.07964282305728881</v>
+        <v>0.1498621977763979</v>
       </c>
       <c r="T5">
-        <v>0.07964282305728881</v>
+        <v>0.1498621977763979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H6">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I6">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J6">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>154.6559793001369</v>
@@ -818,10 +818,10 @@
         <v>1391.903813701232</v>
       </c>
       <c r="S6">
-        <v>0.06912000636451143</v>
+        <v>0.1974718092257225</v>
       </c>
       <c r="T6">
-        <v>0.06912000636451142</v>
+        <v>0.1974718092257224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H7">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I7">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J7">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
-        <v>216.2363075248942</v>
+        <v>216.2363075248943</v>
       </c>
       <c r="R7">
         <v>1946.126767724048</v>
       </c>
       <c r="S7">
-        <v>0.096641946984496</v>
+        <v>0.276100381378483</v>
       </c>
       <c r="T7">
-        <v>0.09664194698449599</v>
+        <v>0.276100381378483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.398322</v>
       </c>
       <c r="I8">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J8">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>93.57018347442866</v>
+        <v>61.62849992661555</v>
       </c>
       <c r="R8">
-        <v>842.1316512698579</v>
+        <v>554.65649933954</v>
       </c>
       <c r="S8">
-        <v>0.04181908586107467</v>
+        <v>0.07869007997911467</v>
       </c>
       <c r="T8">
-        <v>0.04181908586107467</v>
+        <v>0.07869007997911467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.398322</v>
       </c>
       <c r="I9">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J9">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>81.20721276578489</v>
@@ -1004,10 +1004,10 @@
         <v>730.864914892064</v>
       </c>
       <c r="S9">
-        <v>0.03629373457538423</v>
+        <v>0.1036890736433592</v>
       </c>
       <c r="T9">
-        <v>0.03629373457538422</v>
+        <v>0.1036890736433592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.398322</v>
       </c>
       <c r="I10">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J10">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>113.5419911491662</v>
@@ -1066,10 +1066,10 @@
         <v>1021.877920342496</v>
       </c>
       <c r="S10">
-        <v>0.05074503544178666</v>
+        <v>0.1449755936807609</v>
       </c>
       <c r="T10">
-        <v>0.05074503544178666</v>
+        <v>0.1449755936807609</v>
       </c>
     </row>
   </sheetData>
